--- a/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200801.xlsx
+++ b/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200801.xlsx
@@ -535,6 +535,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2020</t>
     </r>
     <r>
@@ -10441,12 +10448,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -10542,6 +10549,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -10552,13 +10566,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10586,10 +10593,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10601,15 +10609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10624,10 +10624,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10647,21 +10647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -10673,6 +10658,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10706,7 +10713,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10718,43 +10767,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10778,7 +10851,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10790,37 +10881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10832,61 +10893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10929,17 +10936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10960,16 +10967,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10983,16 +10990,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -11003,10 +11010,10 @@
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11015,7 +11022,7 @@
     <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11024,7 +11031,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11033,115 +11040,115 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11521,8 +11528,8 @@
   <sheetPr/>
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.925" defaultRowHeight="16.5"/>
@@ -11716,10 +11723,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="16">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="D2" s="16">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>47</v>
@@ -11733,7 +11740,6 @@
         <v>3</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="11"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15">
@@ -11803,10 +11809,10 @@
         <v>57</v>
       </c>
       <c r="C3" s="16">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="D3" s="16">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>47</v>
@@ -13364,7 +13370,6 @@
       <c r="H36" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="11"/>
       <c r="N36" s="11">
         <v>3</v>
       </c>
@@ -13417,17 +13422,11 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI20 AI21 AI22 AI23 AI24 AI25 AI26 AI27 AI28 AI29 AI30 AI31 AI32 AI33 AI34 AI35 AI36 AI37 AI2:AI19 AI38:AI1048576">
-      <formula1>"未核查,已核查"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G38:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 L2 M2:O2 P2:S2 T2:V2 W2:X2 K10 K19 I20:J20 K20 L20 M20:O20 P20:S20 T20:V20 W20:X20 I21:J21 K21 L21 M21:O21 P21:S21 T21:V21 W21:X21 I22:J22 K22 L22 M22:O22 P22:S22 T22:V22 W22:X22 I23:J23 K23 L23 M23:O23 P23:S23 T23:V23 W23:X23 I24:J24 K24 L24 M24:O24 P24:S24 T24:V24 W24:X24 I25:J25 K25 L25 M25:O25 P25:S25 T25:V25 W25:X25 I26:J26 K26 L26 M26:O26 P26:S26 T26:V26 W26:X26 I27:J27 K27 L27 M27:O27 P27:S27 T27:V27 W27:X27 I28:J28 K28 L28 M28:O28 P28:S28 T28:V28 W28:X28 I29:J29 K29 L29 M29:O29 P29:S29 T29:V29 W29:X29 I30:J30 K30 L30 M30:O30 P30:S30 T30:V30 W30:X30 I31:J31 K31 L31 M31:O31 P31:S31 T31:V31 W31:X31 I32:J32 K32 L32 M32:O32 P32:S32 T32:V32 W32:X32 I33:J33 K33 L33 M33:O33 P33:S33 T33:V33 W33:X33 I34:J34 K34 L34 M34:O34 P34:S34 T34:V34 W34:X34 I35:J35 K35 L35 M35:O35 P35:S35 T35:V35 W35:X35 I36:J36 K36 L36 M36:O36 P36:S36 T36:V36 W36:X36 I37:J37 K37 L37 M37:O37 P37:S37 T37:V37 W37:X37 J2:J17 K38:K1048576 L3:L17 L18:L19 L38:L1048576 Q3:Q17 S3:S17 M3:O17 I18:J19 W18:X19 M18:O19 P18:S19 W3:X17 T18:V19 T3:V17 I38:J1048576 W38:X1048576 M38:O1048576 P38:S1048576 T38:V1048576">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM20 AS20 AM21 AS21 AM22 AS22 AM23 AS23 AM24 AS24 AM25 AS25 AM26 AS26 AM27 AS27 AM28 AS28 AM29 AS29 AM30 AS30 AM31 AS31 AM32 AS32 AM33 AS33 AM34 AS34 AM35 AS35 AM36 AS36 AM37 AS37 AM2:AM19 AM38:AM1048576 AS2:AS19 AS38:AS1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B2:B19 B38:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
@@ -13440,6 +13439,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG20 AK20 AQ20 AG21 AK21 AQ21 AG22 AK22 AQ22 AG23 AK23 AQ23 AG24 AK24 AQ24 AG25 AK25 AQ25 AG26 AK26 AQ26 AG27 AK27 AQ27 AG28 AK28 AQ28 AG29 AK29 AQ29 AG30 AK30 AQ30 AG31 AK31 AQ31 AG32 AK32 AQ32 AG33 AK33 AQ33 AG34 AK34 AQ34 AG35 AK35 AQ35 AG36 AK36 AQ36 AG37 AK37 AQ37 AG2:AG19 AG38:AG1048576 AK2:AK19 AK38:AK1048576 AQ2:AQ19 AQ38:AQ1048576">
       <formula1>"手动,自动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM20 AS20 AM21 AS21 AM22 AS22 AM23 AS23 AM24 AS24 AM25 AS25 AM26 AS26 AM27 AS27 AM28 AS28 AM29 AS29 AM30 AS30 AM31 AS31 AM32 AS32 AM33 AS33 AM34 AS34 AM35 AS35 AM36 AS36 AM37 AS37 AM2:AM19 AM38:AM1048576 AS2:AS19 AS38:AS1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI20 AI21 AI22 AI23 AI24 AI25 AI26 AI27 AI28 AI29 AI30 AI31 AI32 AI33 AI34 AI35 AI36 AI37 AI2:AI19 AI38:AI1048576">
+      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
